--- a/AI.xlsx
+++ b/AI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE.WORK\HTML\Presently-Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Global\Desktop\Python_ML_Models_Plots_EDA_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD442472-4372-4329-8A2B-8D896BDF8CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="19560" windowHeight="8205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="1" r:id="rId1"/>
@@ -3628,7 +3629,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3739,25 +3740,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3772,7 +3770,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3796,21 +3794,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3825,62 +3809,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3985,7 +3913,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4006,7 +3934,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4048,7 +3983,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4146,7 +4088,63 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4182,7 +4180,13 @@
       <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="SEARCH"/>
+            <xdr:cNvPr id="2" name="SEARCH">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -4241,7 +4245,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_SEARCH" sourceName="SEARCH">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_SEARCH" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="SEARCH">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="3" column="2"/>
@@ -4251,24 +4255,24 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="SEARCH" cache="Slicer_SEARCH" caption="SEARCH" columnCount="4" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="SEARCH" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_SEARCH" caption="SEARCH" columnCount="4" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A47:C451" totalsRowShown="0">
-  <autoFilter ref="A47:C451">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A47:C451" totalsRowShown="0">
+  <autoFilter ref="A47:C451" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="PLOTTING_DIST"/>
+        <filter val="UNBALANCE_METHODS"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="2" name="SEARCH"/>
-    <tableColumn id="3" name="CODING"/>
-    <tableColumn id="4" name="DESCRIPTION"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SEARCH"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CODING"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DESCRIPTION"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4536,11 +4540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A46:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B436" sqref="B436"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4569,7 +4573,7 @@
       <c r="B48" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4578,7 +4582,7 @@
       <c r="B49" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="99.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4932,7 +4936,7 @@
       <c r="A86" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>443</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -4943,7 +4947,7 @@
       <c r="A87" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>321</v>
       </c>
       <c r="C87" s="2"/>
@@ -4952,7 +4956,7 @@
       <c r="A88" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>534</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4963,7 +4967,7 @@
       <c r="A89" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>448</v>
       </c>
       <c r="C89" s="2"/>
@@ -4972,7 +4976,7 @@
       <c r="A90" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>479</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -4983,7 +4987,7 @@
       <c r="A91" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>522</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -4994,7 +4998,7 @@
       <c r="A92" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>538</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -5005,7 +5009,7 @@
       <c r="A93" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>450</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -5016,7 +5020,7 @@
       <c r="A94" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>453</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -5633,7 +5637,7 @@
       <c r="A155" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="15" t="s">
         <v>554</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -6175,7 +6179,7 @@
       </c>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>359</v>
       </c>
@@ -6184,7 +6188,7 @@
       </c>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>359</v>
       </c>
@@ -6193,7 +6197,7 @@
       </c>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="1:3" ht="123.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>359</v>
       </c>
@@ -6202,7 +6206,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>359</v>
       </c>
@@ -6211,7 +6215,7 @@
       </c>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="1:3" ht="123.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>359</v>
       </c>
@@ -6220,7 +6224,7 @@
       </c>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>359</v>
       </c>
@@ -6229,7 +6233,7 @@
       </c>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>359</v>
       </c>
@@ -6238,7 +6242,7 @@
       </c>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>359</v>
       </c>
@@ -6247,7 +6251,7 @@
       </c>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="1:3" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>359</v>
       </c>
@@ -6256,7 +6260,7 @@
       </c>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>359</v>
       </c>
@@ -6265,7 +6269,7 @@
       </c>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="1:3" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>359</v>
       </c>
@@ -7084,7 +7088,7 @@
       <c r="A314" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C314" s="2"/>
@@ -7127,7 +7131,7 @@
       <c r="B318" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C318" s="12" t="s">
+      <c r="C318" s="11" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7969,35 +7973,35 @@
       </c>
     </row>
     <row r="398" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="8" t="s">
+      <c r="A398" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C398" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="8" t="s">
+      <c r="A400" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C400" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8005,10 +8009,10 @@
       <c r="A401" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="B401" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C401" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8016,134 +8020,134 @@
       <c r="A402" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C402" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="8" t="s">
+      <c r="A404" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C404" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="8" t="s">
+      <c r="A405" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C405" s="6" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="8" t="s">
+      <c r="A406" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C406" s="7"/>
+      <c r="C406" s="6"/>
     </row>
     <row r="407" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="8" t="s">
+      <c r="A407" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C407" s="6" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="8" t="s">
+      <c r="A408" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B408" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C408" s="7" t="s">
+      <c r="C408" s="6" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="8" t="s">
+      <c r="A409" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B409" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C409" s="7" t="s">
+      <c r="C409" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="8" t="s">
+      <c r="A410" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C410" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="8" t="s">
+      <c r="A411" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C411" s="7"/>
+      <c r="C411" s="6"/>
     </row>
     <row r="412" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="8" t="s">
+      <c r="A412" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C412" s="7"/>
+      <c r="C412" s="6"/>
     </row>
     <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="8" t="s">
+      <c r="A413" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C413" s="7"/>
+      <c r="C413" s="6"/>
     </row>
     <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="8" t="s">
+      <c r="A414" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C414" s="7" t="s">
+      <c r="C414" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8151,66 +8155,66 @@
       <c r="A415" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C415" s="7"/>
+      <c r="C415" s="6"/>
     </row>
     <row r="416" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="8" t="s">
+      <c r="A416" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C416" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C417" s="7"/>
+      <c r="C417" s="6"/>
     </row>
     <row r="418" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="8" t="s">
+      <c r="A418" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C418" s="7"/>
+      <c r="C418" s="6"/>
     </row>
     <row r="419" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="8" t="s">
+      <c r="A419" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C419" s="7"/>
+      <c r="C419" s="6"/>
     </row>
     <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="8" t="s">
+      <c r="A420" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C420" s="7"/>
+      <c r="C420" s="6"/>
     </row>
     <row r="421" spans="1:3" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C421" s="7" t="s">
+      <c r="C421" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8218,10 +8222,10 @@
       <c r="A422" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C422" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8229,41 +8233,41 @@
       <c r="A423" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C423" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="101.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="8" t="s">
+      <c r="A424" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C424" s="10"/>
+      <c r="C424" s="9"/>
     </row>
     <row r="425" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="11" t="s">
+      <c r="A425" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C425" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="11" t="s">
+      <c r="A426" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C426" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8271,10 +8275,10 @@
       <c r="A427" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C427" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8282,10 +8286,10 @@
       <c r="A428" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C428" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -8293,126 +8297,126 @@
       <c r="A429" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C429" s="7" t="s">
+      <c r="C429" s="6" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="8" t="s">
+      <c r="A430" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C430" s="10" t="s">
+      <c r="C430" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="11" t="s">
+      <c r="A431" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C431" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="8" t="s">
+      <c r="A432" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C432" s="7" t="s">
+      <c r="C432" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="11" t="s">
+      <c r="A433" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C433" s="7"/>
+      <c r="C433" s="6"/>
     </row>
     <row r="434" spans="1:3" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C434" s="7"/>
+      <c r="C434" s="6"/>
     </row>
     <row r="435" spans="1:3" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="8" t="s">
+      <c r="A435" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C435" s="7"/>
-    </row>
-    <row r="436" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A436" s="8" t="s">
+      <c r="C435" s="6"/>
+    </row>
+    <row r="436" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C436" s="7"/>
+      <c r="C436" s="6"/>
     </row>
     <row r="437" spans="1:3" ht="225" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="11" t="s">
+      <c r="A437" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C437" s="7"/>
+      <c r="C437" s="6"/>
     </row>
     <row r="438" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C438" s="7"/>
+      <c r="C438" s="6"/>
     </row>
     <row r="439" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C439" s="7"/>
+      <c r="C439" s="6"/>
     </row>
     <row r="440" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C440" s="7"/>
+      <c r="C440" s="6"/>
     </row>
     <row r="441" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C441" s="7" t="s">
+      <c r="C441" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -8420,21 +8424,21 @@
       <c r="A442" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C442" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="11" t="s">
+      <c r="A443" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C443" s="7"/>
+      <c r="C443" s="6"/>
     </row>
     <row r="444" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
@@ -8446,7 +8450,7 @@
       <c r="C444" s="2"/>
     </row>
     <row r="445" spans="1:3" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="6" t="s">
+      <c r="A445" s="1" t="s">
         <v>579</v>
       </c>
       <c r="B445" s="2" t="s">
@@ -8455,7 +8459,7 @@
       <c r="C445" s="2"/>
     </row>
     <row r="446" spans="1:3" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="6" t="s">
+      <c r="A446" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -8464,7 +8468,7 @@
       <c r="C446" s="2"/>
     </row>
     <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="6" t="s">
+      <c r="A447" s="1" t="s">
         <v>663</v>
       </c>
       <c r="B447" s="2" t="s">
@@ -8493,7 +8497,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="6" t="s">
+      <c r="A450" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -8513,188 +8517,178 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A240">
+    <cfRule type="expression" dxfId="50" priority="1504">
+      <formula>SEARCH($A$257,#REF!&amp;$B240&amp;$C240&amp;$D238)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273:A274 A313 A263 A277 A310 A305 A237:C240 A242:C242 A244:C255 A257:C262 A264:C264 A288">
+    <cfRule type="expression" dxfId="49" priority="775">
+      <formula>SEARCH($A$257,#REF!&amp;$B237&amp;$C237&amp;$D236)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273:A274 A313 A377:A381 A434 A342:A344 A263 A277 A415 A309:A310 A305 A355 A383 A448 A372:A373 A339:A340 A48:C54 A56:C85 C86:C94 A86:A95 A95:C255 A287:A288">
+    <cfRule type="expression" dxfId="48" priority="426">
+      <formula>SEARCH($A$257,#REF!&amp;$B48&amp;$C48&amp;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273:A274">
+    <cfRule type="expression" dxfId="47" priority="1959">
+      <formula>SEARCH($A$257,#REF!&amp;$B273&amp;$C273&amp;$D247)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A277 A263">
+    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A277">
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A287:A288 C86:C94 A86:A95 A273:A274 A48:C85 A95:C255">
+    <cfRule type="duplicateValues" dxfId="44" priority="1601"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A287:A288">
+    <cfRule type="expression" dxfId="43" priority="1965">
+      <formula>SEARCH($A$257,#REF!&amp;$B287&amp;$C287&amp;$D258)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A305 A310 A313">
+    <cfRule type="expression" dxfId="42" priority="1687">
+      <formula>SEARCH($A$257,#REF!&amp;$B305&amp;$C305&amp;$D282)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A309">
+    <cfRule type="duplicateValues" dxfId="41" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A310">
+    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A313 A274">
+    <cfRule type="duplicateValues" dxfId="39" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A313 A310 A305">
+    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A313">
+    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A339">
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A340">
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A342">
+    <cfRule type="duplicateValues" dxfId="33" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A343:A344">
+    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A351:A352">
+    <cfRule type="duplicateValues" dxfId="31" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A351:A353">
+    <cfRule type="expression" dxfId="30" priority="45">
+      <formula>SEARCH($A$257,#REF!&amp;$B351&amp;$C351&amp;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A353">
+    <cfRule type="duplicateValues" dxfId="29" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A372:A373">
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A415">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A444 A434 A377:A378">
+    <cfRule type="duplicateValues" dxfId="26" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A444">
+    <cfRule type="expression" dxfId="25" priority="50">
+      <formula>SEARCH($A$257,#REF!&amp;$B444&amp;$C444&amp;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A448 A383 A379:A381 A355">
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:B55">
+    <cfRule type="expression" dxfId="23" priority="1767">
+      <formula>SEARCH($A$257,#REF!&amp;$B55&amp;#REF!&amp;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241:C241 A242">
+    <cfRule type="expression" dxfId="22" priority="1505">
+      <formula>SEARCH($A$257,#REF!&amp;$B241&amp;$C241&amp;$D239)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A243:C243 A287">
+    <cfRule type="expression" dxfId="21" priority="1499">
+      <formula>SEARCH($A$257,#REF!&amp;$B243&amp;$C243&amp;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256:C256">
+    <cfRule type="expression" dxfId="20" priority="1766">
+      <formula>SEARCH($A$257,#REF!&amp;$B256&amp;$C256&amp;$D47)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A263:C263">
+    <cfRule type="expression" dxfId="19" priority="550">
+      <formula>SEARCH($A$257,#REF!&amp;$B263&amp;$C263&amp;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A451:C451">
+    <cfRule type="duplicateValues" dxfId="18" priority="1042"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B85 B95:B451">
+    <cfRule type="duplicateValues" dxfId="17" priority="1962"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B256:B420">
+    <cfRule type="duplicateValues" dxfId="16" priority="1960"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B419">
-    <cfRule type="duplicateValues" dxfId="50" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B421:B423 B425">
-    <cfRule type="duplicateValues" dxfId="49" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B423 B425">
-    <cfRule type="duplicateValues" dxfId="48" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B424">
-    <cfRule type="duplicateValues" dxfId="47" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B426">
-    <cfRule type="duplicateValues" dxfId="46" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B426">
-    <cfRule type="duplicateValues" dxfId="45" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B427:B428">
-    <cfRule type="duplicateValues" dxfId="44" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B427:B428">
-    <cfRule type="duplicateValues" dxfId="43" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B429">
-    <cfRule type="duplicateValues" dxfId="42" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B429">
-    <cfRule type="duplicateValues" dxfId="41" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B430">
-    <cfRule type="duplicateValues" dxfId="40" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B430">
-    <cfRule type="duplicateValues" dxfId="39" priority="86"/>
+  <conditionalFormatting sqref="B431:B450">
+    <cfRule type="duplicateValues" dxfId="3" priority="512"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A290:C290 B425:C425 B424 A429:B430 A426:C428 A427:A429 A431:C451 C429 B265:C423 A265:A425">
-    <cfRule type="expression" dxfId="38" priority="168">
+  <conditionalFormatting sqref="B265:C423 B425:C425 B424 A426:C428 A429:B430 A265:A425 A431:C451 A290:C290 A427:A429 C429">
+    <cfRule type="expression" dxfId="2" priority="168">
       <formula>SEARCH($A$257,#REF!&amp;$B265&amp;$C265&amp;$D265)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A313 A274">
-    <cfRule type="duplicateValues" dxfId="37" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86:C94 A86:A95 A56:C85 A48:C54 A263 A95:C255 A287:A288 A305 A434 A383 A377:A381 A355 A415 A448 A372:A373 A313 A309:A310 A342:A344 A339:A340 A273:A274 A277">
-    <cfRule type="expression" dxfId="36" priority="426">
-      <formula>SEARCH($A$257,#REF!&amp;$B48&amp;$C48&amp;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A444 A434 A377:A378">
-    <cfRule type="duplicateValues" dxfId="35" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A444">
-    <cfRule type="expression" dxfId="34" priority="50">
-      <formula>SEARCH($A$257,#REF!&amp;$B444&amp;$C444&amp;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B431:B450">
-    <cfRule type="duplicateValues" dxfId="33" priority="512"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A263:C263">
-    <cfRule type="expression" dxfId="32" priority="550">
-      <formula>SEARCH($A$257,#REF!&amp;$B263&amp;$C263&amp;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A257:C262 A264:C264 A237:C240 A244:C255 A263 A242:C242 A288 A313 A305 A310 A273:A274 A277">
-    <cfRule type="expression" dxfId="31" priority="775">
-      <formula>SEARCH($A$257,#REF!&amp;$B237&amp;$C237&amp;$D236)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A353">
-    <cfRule type="duplicateValues" dxfId="30" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A351:A353">
-    <cfRule type="expression" dxfId="29" priority="45">
-      <formula>SEARCH($A$257,#REF!&amp;$B351&amp;$C351&amp;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A351:A352">
-    <cfRule type="duplicateValues" dxfId="28" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A342">
-    <cfRule type="duplicateValues" dxfId="27" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A277 A263">
-    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A313">
-    <cfRule type="duplicateValues" dxfId="25" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A313">
-    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A415">
-    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A309">
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A310">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A313 A310 A305">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A343:A344">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A448 A383 A379:A381 A355">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A372:A373">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A339">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A340">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A277">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A451:C451">
-    <cfRule type="duplicateValues" dxfId="13" priority="1042"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86:XFD94 A86:A95 A1:XFD85 A95:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A243:C243 A287">
-    <cfRule type="expression" dxfId="11" priority="1499">
-      <formula>SEARCH($A$257,#REF!&amp;$B243&amp;$C243&amp;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A240">
-    <cfRule type="expression" dxfId="10" priority="1504">
-      <formula>SEARCH($A$257,#REF!&amp;$B240&amp;$C240&amp;$D238)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A241:C241 A242">
-    <cfRule type="expression" dxfId="9" priority="1505">
-      <formula>SEARCH($A$257,#REF!&amp;$B241&amp;$C241&amp;$D239)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A287:A288 C86:C94 A86:A95 A273:A274 A48:C85 A95:C255">
-    <cfRule type="duplicateValues" dxfId="8" priority="1601"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A310 A305 A313">
-    <cfRule type="expression" dxfId="7" priority="1687">
-      <formula>SEARCH($A$257,#REF!&amp;$B305&amp;$C305&amp;$D282)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256:C256">
-    <cfRule type="expression" dxfId="6" priority="1766">
-      <formula>SEARCH($A$257,#REF!&amp;$B256&amp;$C256&amp;$D47)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:B55">
-    <cfRule type="expression" dxfId="5" priority="1767">
-      <formula>SEARCH($A$257,#REF!&amp;$B55&amp;#REF!&amp;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="4" priority="1768">
+    <cfRule type="expression" dxfId="1" priority="1768">
       <formula>SEARCH($A$257,#REF!&amp;#REF!&amp;$C55&amp;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A273:A274">
-    <cfRule type="expression" dxfId="3" priority="1959">
-      <formula>SEARCH($A$257,#REF!&amp;$B273&amp;$C273&amp;$D247)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B256:B420">
-    <cfRule type="duplicateValues" dxfId="2" priority="1960"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:B85 B95:B451">
-    <cfRule type="duplicateValues" dxfId="1" priority="1962"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A287:A288">
-    <cfRule type="expression" dxfId="0" priority="1965">
-      <formula>SEARCH($A$257,#REF!&amp;$B287&amp;$C287&amp;$D258)</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C86:XFD94 A86:A95 A1:XFD85 A95:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1113"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -8713,7 +8707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/AI.xlsx
+++ b/AI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Global\Desktop\Python_ML_Models_Plots_EDA_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD442472-4372-4329-8A2B-8D896BDF8CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B476AED2-92E0-43E0-B6AD-08B4A250EB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4265,7 +4265,7 @@
   <autoFilter ref="A47:C451" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="UNBALANCE_METHODS"/>
+        <filter val="SCALLER"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4543,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A46:C451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,7 +5644,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>201</v>
       </c>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>359</v>
       </c>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>359</v>
       </c>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="123.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>359</v>
       </c>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>359</v>
       </c>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="123.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>359</v>
       </c>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>359</v>
       </c>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>359</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>359</v>
       </c>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>359</v>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>359</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>359</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>201</v>
       </c>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>201</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="1:3" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>201</v>
       </c>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>201</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="1:3" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>201</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>201</v>
       </c>
